--- a/ExcelReport/SIT_AutomationOrangeHRM.xlsx
+++ b/ExcelReport/SIT_AutomationOrangeHRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\juaracoding\sqabatch8\IntelliJ\AutomationTest OrangeHRM\ExcelReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0248E11-3CCD-4BDA-9405-22A578F52EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE0686-5596-4577-BD81-525B5F721421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="203">
   <si>
     <t>Module</t>
   </si>
@@ -248,9 +248,6 @@
     <t>1. Admin click button Add</t>
   </si>
   <si>
-    <t>2. Admin fill candidate Name</t>
-  </si>
-  <si>
     <t>3. Admin choose Vacancy</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>9. Admin click Consent to keep data</t>
   </si>
   <si>
-    <t>10. Admin click button Save candidate</t>
-  </si>
-  <si>
     <t>Vacancies</t>
   </si>
   <si>
@@ -347,9 +341,6 @@
     <t>2. Admin click button User Role</t>
   </si>
   <si>
-    <t>3. Admin fill Employee Name</t>
-  </si>
-  <si>
     <t>4. Admin click button Status</t>
   </si>
   <si>
@@ -441,6 +432,204 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Admin add candidate without name</t>
+  </si>
+  <si>
+    <t>2. Admin empty candidate Name</t>
+  </si>
+  <si>
+    <t>10. Admin click button Save</t>
+  </si>
+  <si>
+    <t>11. Admin get alert Required</t>
+  </si>
+  <si>
+    <t>without filling name</t>
+  </si>
+  <si>
+    <t>Admin add candidate without first name</t>
+  </si>
+  <si>
+    <t>without filling first name</t>
+  </si>
+  <si>
+    <t>1. Admin click button Cancel</t>
+  </si>
+  <si>
+    <t>3. Admin empty candidate First Name</t>
+  </si>
+  <si>
+    <t>4. Admin choose Vacancy</t>
+  </si>
+  <si>
+    <t>5. Admin fill Email address and Contact number</t>
+  </si>
+  <si>
+    <t>6. Admin upload Resume</t>
+  </si>
+  <si>
+    <t>7. Admin write Keywords</t>
+  </si>
+  <si>
+    <t>8. Admin set Date</t>
+  </si>
+  <si>
+    <t>9. Admin write Notes</t>
+  </si>
+  <si>
+    <t>10. Admin click Consent to keep data</t>
+  </si>
+  <si>
+    <t>11. Admin click button Save</t>
+  </si>
+  <si>
+    <t>12. Admin get alert Required</t>
+  </si>
+  <si>
+    <t>without filling last name</t>
+  </si>
+  <si>
+    <t>Admin add candidate without last name</t>
+  </si>
+  <si>
+    <t>3. Admin empty candidate Last Name</t>
+  </si>
+  <si>
+    <t>3. Admin fill candidate Name</t>
+  </si>
+  <si>
+    <t>11. Admin click button Save candidate</t>
+  </si>
+  <si>
+    <t>Admin add vacancies without name</t>
+  </si>
+  <si>
+    <t>without vacancy name</t>
+  </si>
+  <si>
+    <t>3. Admin empty Vacancy Name</t>
+  </si>
+  <si>
+    <t>6. Admin empty Hiring Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin add vacancies without </t>
+  </si>
+  <si>
+    <t>hiring manager</t>
+  </si>
+  <si>
+    <t>without hiring manager</t>
+  </si>
+  <si>
+    <t>6. Admin fill invalid Hiring Manager</t>
+  </si>
+  <si>
+    <t>11. Admin get alert Invalid</t>
+  </si>
+  <si>
+    <t>with invalid hiring manager</t>
+  </si>
+  <si>
+    <t>Admin add vacancies with invalid</t>
+  </si>
+  <si>
+    <t>TCC.HRM.012</t>
+  </si>
+  <si>
+    <t>TCC.HRM.013</t>
+  </si>
+  <si>
+    <t>TCC.HRM.014</t>
+  </si>
+  <si>
+    <t>Admin see "Invalid" alert</t>
+  </si>
+  <si>
+    <t>TCC.HRM.015</t>
+  </si>
+  <si>
+    <t>TCC.HRM.018</t>
+  </si>
+  <si>
+    <t>TCC.HRM.020</t>
+  </si>
+  <si>
+    <t>Admin add System Users without name</t>
+  </si>
+  <si>
+    <t>Admin add System Users without</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>without employee name</t>
+  </si>
+  <si>
+    <t>without username</t>
+  </si>
+  <si>
+    <t>3. Admin click button User Role</t>
+  </si>
+  <si>
+    <t>4. Admin fill Employee Name</t>
+  </si>
+  <si>
+    <t>5. Admin click button Status</t>
+  </si>
+  <si>
+    <t>6. Admin fill Username add user</t>
+  </si>
+  <si>
+    <t>7. Admin fill Password and Confirm Password add user</t>
+  </si>
+  <si>
+    <t>8. Admin click button Save add user</t>
+  </si>
+  <si>
+    <t>6. Admin empty Username add user</t>
+  </si>
+  <si>
+    <t>3. Admin empty Employee Name</t>
+  </si>
+  <si>
+    <t>8. Admin get alert Required</t>
+  </si>
+  <si>
+    <t>9. Admin get alert Required</t>
+  </si>
+  <si>
+    <t>TCC.HRM.017</t>
+  </si>
+  <si>
+    <t>TCC.HRM.016</t>
+  </si>
+  <si>
+    <t>3. Admin empty Job Title</t>
+  </si>
+  <si>
+    <t>Filling new job title form without</t>
+  </si>
+  <si>
+    <t>job name</t>
+  </si>
+  <si>
+    <t>Admin add Job Title without job name</t>
+  </si>
+  <si>
+    <t>TCC.HRM.019</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v2kuXoi1qvb4W7xQzEP7Y1qpMUVPSldl/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H7Dbl_xYxF9-WL2sl4E2iw0YQ5B2sZKV/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JCx_3xEIomCfNk7lWw7JsIOSgBWZY-YQ/view?usp=share_link</t>
   </si>
 </sst>
 </file>
@@ -450,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -458,13 +647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -515,6 +697,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -542,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -667,53 +865,383 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1123,307 +1651,347 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="25" t="s">
+    <row r="1" spans="1:13" ht="12.75">
+      <c r="A1" s="24" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="24" t="s">
+      <c r="H1" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="12.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="21">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>100</v>
+      </c>
       <c r="F4" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="15"/>
+      <c r="I4" s="21">
+        <v>5</v>
+      </c>
+      <c r="J4" s="21">
+        <v>4</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <v>80</v>
+      </c>
       <c r="M4" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="21">
+        <v>9</v>
+      </c>
+      <c r="C5" s="21">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>100</v>
+      </c>
       <c r="F5" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="15"/>
+      <c r="I5" s="21">
+        <v>9</v>
+      </c>
+      <c r="J5" s="21">
+        <v>9</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>100</v>
+      </c>
       <c r="M5" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21">
+        <v>6</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>100</v>
+      </c>
       <c r="F6" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="I6" s="21">
+        <v>6</v>
+      </c>
+      <c r="J6" s="21">
+        <v>4</v>
+      </c>
+      <c r="K6" s="21">
+        <v>2</v>
+      </c>
+      <c r="L6" s="15">
+        <v>67</v>
+      </c>
       <c r="M6" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="21"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A8" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39">
+        <v>100</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="H8" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38">
+        <v>82</v>
+      </c>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23" t="e">
-        <f>AVERAGE(E4:E9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="H12" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="F11" s="36"/>
+      <c r="H11" s="24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="24" t="s">
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75"/>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="H13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="H18" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="21">
+        <v>20</v>
+      </c>
+      <c r="C14" s="21">
+        <v>20</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="21">
+        <v>20</v>
+      </c>
+      <c r="J14" s="21">
+        <v>17</v>
+      </c>
+      <c r="K14" s="21">
+        <v>3</v>
+      </c>
+      <c r="L14" s="21">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75"/>
+    <row r="18" spans="1:11" ht="12.75"/>
+    <row r="19" spans="1:11" ht="12.75"/>
+    <row r="20" spans="1:11" ht="12.75"/>
+    <row r="21" spans="1:11" ht="12.75">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,10 +2003,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R786"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1535,26 +2103,34 @@
         <v>48</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="P2" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R2" s="3"/>
     </row>
@@ -1625,10 +2201,10 @@
         <v>50</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>2</v>
@@ -1637,14 +2213,18 @@
         <v>2</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45006</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R5" s="3"/>
     </row>
@@ -1715,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>2</v>
@@ -1727,8 +2307,12 @@
         <v>2</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N8" s="5">
+        <v>45006</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1843,10 +2427,10 @@
         <v>55</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>2</v>
@@ -1855,14 +2439,18 @@
         <v>2</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N13" s="5">
+        <v>45006</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R13" s="3"/>
     </row>
@@ -1975,10 +2563,10 @@
         <v>44</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>2</v>
@@ -1987,16 +2575,20 @@
         <v>2</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="M18" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N18" s="5">
+        <v>45006</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R18" s="3"/>
     </row>
@@ -2109,10 +2701,10 @@
         <v>68</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>2</v>
@@ -2121,14 +2713,18 @@
         <v>2</v>
       </c>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="M23" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N23" s="5">
+        <v>45006</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R23" s="3"/>
     </row>
@@ -2155,52 +2751,52 @@
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="D26" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>130</v>
+      <c r="H26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>2</v>
@@ -2208,424 +2804,435 @@
       <c r="K26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N26" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="C38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="M38" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N38" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O38" s="15"/>
+      <c r="P38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="G42" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="G43" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="12.75" customHeight="1">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16" t="s">
-        <v>94</v>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -2642,11 +3249,11 @@
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16" t="s">
-        <v>95</v>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
@@ -2663,11 +3270,11 @@
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16" t="s">
-        <v>96</v>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
@@ -2684,10 +3291,12 @@
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -2700,49 +3309,25 @@
       <c r="Q47" s="15"/>
     </row>
     <row r="48" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A48" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
     </row>
     <row r="49" spans="1:17" ht="12.75" customHeight="1">
       <c r="A49" s="15"/>
@@ -2751,8 +3336,8 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="16" t="s">
-        <v>101</v>
+      <c r="G49" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -2767,12 +3352,12 @@
     </row>
     <row r="50" spans="1:17" ht="12.75" customHeight="1">
       <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="11"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
@@ -2786,58 +3371,64 @@
     </row>
     <row r="51" spans="1:17" ht="12.75" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>135</v>
+        <v>71</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
+      <c r="M51" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N51" s="5">
+        <v>45006</v>
+      </c>
       <c r="O51" s="15"/>
       <c r="P51" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="12.75" customHeight="1">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="16" t="s">
-        <v>107</v>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -2854,11 +3445,11 @@
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="16" t="s">
-        <v>108</v>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -2875,11 +3466,11 @@
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="16" t="s">
-        <v>109</v>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -2896,11 +3487,11 @@
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="16" t="s">
-        <v>110</v>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -2917,11 +3508,11 @@
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="16" t="s">
-        <v>111</v>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -2938,11 +3529,11 @@
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16" t="s">
-        <v>112</v>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -2959,10 +3550,12 @@
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -2975,59 +3568,35 @@
       <c r="Q58" s="15"/>
     </row>
     <row r="59" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A59" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
-      <c r="P59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
     </row>
     <row r="60" spans="1:17" ht="12.75" customHeight="1">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="16" t="s">
-        <v>88</v>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -3044,11 +3613,11 @@
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16" t="s">
-        <v>114</v>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -3068,8 +3637,8 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="16" t="s">
-        <v>115</v>
+      <c r="G62" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
@@ -3089,9 +3658,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="16" t="s">
-        <v>116</v>
-      </c>
+      <c r="G63" s="15"/>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -3104,215 +3671,263 @@
       <c r="Q63" s="15"/>
     </row>
     <row r="64" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
+      <c r="A64" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N64" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O64" s="10"/>
+      <c r="P64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="65" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
     </row>
     <row r="66" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
     </row>
     <row r="67" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
     </row>
     <row r="68" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
     </row>
     <row r="69" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
     </row>
     <row r="70" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
     </row>
     <row r="71" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
     </row>
     <row r="72" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
     </row>
     <row r="73" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
     </row>
     <row r="74" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
     </row>
     <row r="75" spans="1:17" ht="12.75" customHeight="1">
       <c r="A75" s="15"/>
@@ -3334,32 +3949,66 @@
       <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
+      <c r="A76" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
+      <c r="M76" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N76" s="5">
+        <v>45006</v>
+      </c>
       <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="P76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="77" spans="1:17" ht="12.75" customHeight="1">
       <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -3373,12 +4022,14 @@
     </row>
     <row r="78" spans="1:17" ht="12.75" customHeight="1">
       <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
@@ -3392,12 +4043,14 @@
     </row>
     <row r="79" spans="1:17" ht="12.75" customHeight="1">
       <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
@@ -3411,12 +4064,14 @@
     </row>
     <row r="80" spans="1:17" ht="12.75" customHeight="1">
       <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
@@ -3430,12 +4085,14 @@
     </row>
     <row r="81" spans="1:17" ht="12.75" customHeight="1">
       <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
@@ -3449,12 +4106,14 @@
     </row>
     <row r="82" spans="1:17" ht="12.75" customHeight="1">
       <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
@@ -3473,7 +4132,9 @@
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
+      <c r="G83" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
@@ -3492,7 +4153,9 @@
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
+      <c r="G84" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
@@ -3511,7 +4174,9 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
+      <c r="G85" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
@@ -3530,7 +4195,9 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
+      <c r="G86" s="31" t="s">
+        <v>140</v>
+      </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
@@ -3562,32 +4229,68 @@
       <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
+      <c r="A88" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="M88" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N88" s="5">
+        <v>45006</v>
+      </c>
       <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
+      <c r="P88" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="89" spans="1:17" ht="12.75" customHeight="1">
       <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
@@ -3601,12 +4304,14 @@
     </row>
     <row r="90" spans="1:17" ht="12.75" customHeight="1">
       <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
@@ -3620,12 +4325,14 @@
     </row>
     <row r="91" spans="1:17" ht="12.75" customHeight="1">
       <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
@@ -3639,12 +4346,14 @@
     </row>
     <row r="92" spans="1:17" ht="12.75" customHeight="1">
       <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -3658,12 +4367,14 @@
     </row>
     <row r="93" spans="1:17" ht="12.75" customHeight="1">
       <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
@@ -3677,12 +4388,14 @@
     </row>
     <row r="94" spans="1:17" ht="12.75" customHeight="1">
       <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -3701,7 +4414,9 @@
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
+      <c r="G95" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -3720,7 +4435,9 @@
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
+      <c r="G96" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
@@ -3739,7 +4456,9 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
+      <c r="G97" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
@@ -3758,7 +4477,9 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
+      <c r="G98" s="31" t="s">
+        <v>140</v>
+      </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
@@ -3790,163 +4511,2581 @@
       <c r="Q99" s="15"/>
     </row>
     <row r="100" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
+      <c r="A100" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
+      <c r="M100" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N100" s="5">
+        <v>45006</v>
+      </c>
       <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-    </row>
-    <row r="101" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="102" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="103" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="104" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="105" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="106" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="107" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="108" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="109" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="110" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="111" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="112" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
+      <c r="P100" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A101" s="15"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+    </row>
+    <row r="102" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A102" s="15"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+    </row>
+    <row r="103" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A103" s="15"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+    </row>
+    <row r="104" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A104" s="15"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+    </row>
+    <row r="105" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A105" s="15"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+    </row>
+    <row r="106" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A106" s="15"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+    </row>
+    <row r="107" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+    </row>
+    <row r="108" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+    </row>
+    <row r="109" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+    </row>
+    <row r="110" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+    </row>
+    <row r="111" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+    </row>
+    <row r="112" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A112" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M112" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N112" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q112" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A113" s="15"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+    </row>
+    <row r="114" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+    </row>
+    <row r="115" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+    </row>
+    <row r="116" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+    </row>
+    <row r="117" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+    </row>
+    <row r="118" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+    </row>
+    <row r="119" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+    </row>
+    <row r="120" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15"/>
+    </row>
+    <row r="121" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+    </row>
+    <row r="122" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+    </row>
+    <row r="123" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A123" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I123" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="M123" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N123" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O123" s="15"/>
+      <c r="P123" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q123" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+    </row>
+    <row r="125" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+    </row>
+    <row r="126" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A126" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K126" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L126" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M126" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N126" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O126" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="P126" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q126" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+    </row>
+    <row r="128" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+    </row>
+    <row r="129" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+    </row>
+    <row r="130" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+    </row>
+    <row r="131" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+    </row>
+    <row r="132" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+    </row>
+    <row r="133" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+    </row>
+    <row r="134" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+    </row>
+    <row r="135" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A135" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K135" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L135" s="15"/>
+      <c r="M135" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N135" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O135" s="15"/>
+      <c r="P135" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q135" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E136" s="15"/>
+      <c r="F136" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+    </row>
+    <row r="137" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+    </row>
+    <row r="138" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+    </row>
+    <row r="139" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+    </row>
+    <row r="140" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+      <c r="O140" s="15"/>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15"/>
+    </row>
+    <row r="141" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="15"/>
+      <c r="Q141" s="15"/>
+    </row>
+    <row r="142" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+    </row>
+    <row r="143" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+    </row>
+    <row r="144" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+    </row>
+    <row r="145" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A145" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H145" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K145" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L145" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M145" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N145" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O145" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="P145" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q145" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+    </row>
+    <row r="147" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+    </row>
+    <row r="148" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+    </row>
+    <row r="149" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+    </row>
+    <row r="150" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+    </row>
+    <row r="151" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+    </row>
+    <row r="152" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="15"/>
+      <c r="Q152" s="15"/>
+    </row>
+    <row r="153" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+    </row>
+    <row r="154" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A154" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K154" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L154" s="15"/>
+      <c r="M154" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N154" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O154" s="15"/>
+      <c r="P154" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q154" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+      <c r="O155" s="15"/>
+      <c r="P155" s="15"/>
+      <c r="Q155" s="15"/>
+    </row>
+    <row r="156" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
+      <c r="O156" s="15"/>
+      <c r="P156" s="15"/>
+      <c r="Q156" s="15"/>
+    </row>
+    <row r="157" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="15"/>
+      <c r="Q157" s="15"/>
+    </row>
+    <row r="158" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
+      <c r="Q158" s="15"/>
+    </row>
+    <row r="159" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A159" s="15"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
+      <c r="Q159" s="15"/>
+    </row>
+    <row r="160" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A160" s="15"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
+    </row>
+    <row r="161" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
+    </row>
+    <row r="162" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A162" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H162" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I162" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K162" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L162" s="15"/>
+      <c r="M162" s="5">
+        <v>45006</v>
+      </c>
+      <c r="N162" s="5">
+        <v>45006</v>
+      </c>
+      <c r="O162" s="15"/>
+      <c r="P162" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q162" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A163" s="15"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
+      <c r="Q163" s="15"/>
+    </row>
+    <row r="164" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
+      <c r="O164" s="15"/>
+      <c r="P164" s="15"/>
+      <c r="Q164" s="15"/>
+    </row>
+    <row r="165" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="15"/>
+      <c r="Q165" s="15"/>
+    </row>
+    <row r="166" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A166" s="15"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+      <c r="N166" s="15"/>
+      <c r="O166" s="15"/>
+      <c r="P166" s="15"/>
+      <c r="Q166" s="15"/>
+    </row>
+    <row r="167" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
+      <c r="Q167" s="15"/>
+    </row>
+    <row r="168" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="169" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="170" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="171" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="172" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="173" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="174" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="175" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="176" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="J2:K18">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K18">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J112">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J112">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J123">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J123">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J162">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J162">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K162">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K162">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K112">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K18">
+  <conditionalFormatting sqref="K112">
     <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J76">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J76">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+  <conditionalFormatting sqref="K76">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+  <conditionalFormatting sqref="K76">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="J88">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="J88">
     <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="K88">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="K88">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+  <conditionalFormatting sqref="J100">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+  <conditionalFormatting sqref="J100">
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="K100">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="K100">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="J126">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="J126">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="J135">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="J135">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="K135">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="K135">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
+  <conditionalFormatting sqref="J154">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
+  <conditionalFormatting sqref="J154">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
+  <conditionalFormatting sqref="K154">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
+  <conditionalFormatting sqref="K154">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{C9236EFA-5B2C-49D1-8CB3-D6FB49B92277}"/>
+    <hyperlink ref="O126" r:id="rId2" xr:uid="{F2B77FAA-5077-44FC-B6E6-2CC9F39D5478}"/>
+    <hyperlink ref="O145" r:id="rId3" xr:uid="{A6ED6D78-D291-4EE6-B3D4-6473181EC250}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/ExcelReport/SIT_AutomationOrangeHRM.xlsx
+++ b/ExcelReport/SIT_AutomationOrangeHRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\juaracoding\sqabatch8\IntelliJ\AutomationTest OrangeHRM\ExcelReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE0686-5596-4577-BD81-525B5F721421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8985EB-932F-4FDD-A4A5-93C6CF739FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="204">
   <si>
     <t>Module</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1JCx_3xEIomCfNk7lWw7JsIOSgBWZY-YQ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>SQA Automation</t>
   </si>
 </sst>
 </file>
@@ -881,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -916,19 +919,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -937,39 +934,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1651,7 +1616,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1660,6 +1625,7 @@
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
@@ -1705,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1">
@@ -1837,65 +1803,47 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="35">
         <v>100</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34">
         <v>82</v>
       </c>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="12.75">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="36"/>
       <c r="H11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="12.75"/>
     <row r="13" spans="1:13" ht="12.75" customHeight="1">
@@ -2123,7 +2071,7 @@
       <c r="N2" s="5">
         <v>45006</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="30" t="s">
         <v>200</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -3081,7 +3029,7 @@
       <c r="F38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="11" t="s">
         <v>144</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -3388,7 +3336,7 @@
       <c r="F51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="11" t="s">
         <v>144</v>
       </c>
       <c r="H51" s="8" t="s">
@@ -4195,7 +4143,7 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="31" t="s">
+      <c r="G86" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H86" s="15"/>
@@ -4477,7 +4425,7 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="31" t="s">
+      <c r="G98" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H98" s="15"/>
@@ -4759,7 +4707,7 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="31" t="s">
+      <c r="G110" s="16" t="s">
         <v>168</v>
       </c>
       <c r="H110" s="15"/>
@@ -5171,7 +5119,7 @@
       <c r="J126" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K126" s="30" t="s">
+      <c r="K126" s="29" t="s">
         <v>3</v>
       </c>
       <c r="L126" s="16" t="s">
@@ -5183,7 +5131,7 @@
       <c r="N126" s="5">
         <v>45006</v>
       </c>
-      <c r="O126" s="33" t="s">
+      <c r="O126" s="31" t="s">
         <v>201</v>
       </c>
       <c r="P126" s="10" t="s">
@@ -5568,7 +5516,7 @@
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
-      <c r="G143" s="31" t="s">
+      <c r="G143" s="16" t="s">
         <v>192</v>
       </c>
       <c r="H143" s="15"/>
@@ -5632,7 +5580,7 @@
       <c r="J145" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K145" s="30" t="s">
+      <c r="K145" s="29" t="s">
         <v>3</v>
       </c>
       <c r="L145" s="16" t="s">
@@ -5644,7 +5592,7 @@
       <c r="N145" s="5">
         <v>45006</v>
       </c>
-      <c r="O145" s="33" t="s">
+      <c r="O145" s="31" t="s">
         <v>202</v>
       </c>
       <c r="P145" s="10" t="s">
@@ -5983,7 +5931,7 @@
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
-      <c r="G160" s="31" t="s">
+      <c r="G160" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H160" s="15"/>
@@ -6156,7 +6104,7 @@
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
-      <c r="G167" s="31" t="s">
+      <c r="G167" s="16" t="s">
         <v>114</v>
       </c>
       <c r="H167" s="15"/>
@@ -6791,112 +6739,112 @@
     <row r="786" ht="12.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="J2:K18">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K18">
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J112">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J112">
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K162">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K162">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
